--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/infractionsDetails.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/infractionsDetails.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\LogicTracker\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,28 +15,29 @@
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$9:$I$9</definedName>
-    <definedName name="CALIFICACION">Informe!$B$9</definedName>
-    <definedName name="CALIFICACION_STR">Informe!$T$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$9:$J$9</definedName>
+    <definedName name="CALIFICACION">Informe!$C$9</definedName>
+    <definedName name="CALIFICACION_STR">Informe!$U$9</definedName>
     <definedName name="CHOFER">Informe!$A$9</definedName>
-    <definedName name="Desde">Informe!$B$5</definedName>
-    <definedName name="DURACION">Informe!$F$9</definedName>
-    <definedName name="Empleado">Informe!$B$7</definedName>
-    <definedName name="ESQUINA">Informe!$D$9</definedName>
-    <definedName name="EXCESO">Informe!$H$9</definedName>
-    <definedName name="Hasta">Informe!$B$6</definedName>
-    <definedName name="INICIO">Informe!$E$9</definedName>
-    <definedName name="PARENTI03">Informe!$C$9</definedName>
-    <definedName name="PICO">Informe!$G$9</definedName>
-    <definedName name="PONDERACION">Informe!$I$9</definedName>
-    <definedName name="Titulo">Informe!$C$1</definedName>
+    <definedName name="Desde">Informe!$C$5</definedName>
+    <definedName name="DURACION">Informe!$G$9</definedName>
+    <definedName name="Empleado">Informe!$C$7</definedName>
+    <definedName name="ESQUINA">Informe!$E$9</definedName>
+    <definedName name="EXCESO">Informe!$I$9</definedName>
+    <definedName name="Hasta">Informe!$C$6</definedName>
+    <definedName name="INICIO">Informe!$F$9</definedName>
+    <definedName name="PARENTI03">Informe!$D$9</definedName>
+    <definedName name="PICO">Informe!$H$9</definedName>
+    <definedName name="PONDERACION">Informe!$J$9</definedName>
+    <definedName name="TIPO_INFRACCION">Informe!$B$9</definedName>
+    <definedName name="Titulo">Informe!$B$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Desde: </t>
   </si>
@@ -75,6 +76,9 @@
   </si>
   <si>
     <t>Ponderación</t>
+  </si>
+  <si>
+    <t>Tipo de infracción</t>
   </si>
 </sst>
 </file>
@@ -626,7 +630,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -656,6 +660,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -730,8 +737,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2781299</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>211740</xdr:rowOff>
     </xdr:to>
@@ -1059,686 +1066,692 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T197"/>
+  <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.140625" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.140625" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="H2" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
       <c r="I2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F127" s="5"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F128" s="5"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F138" s="5"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F139" s="5"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F145" s="5"/>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F148" s="5"/>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F149" s="5"/>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F150" s="5"/>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F151" s="5"/>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F152" s="5"/>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F153" s="5"/>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F154" s="5"/>
-    </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F155" s="5"/>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F156" s="5"/>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F157" s="5"/>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F158" s="5"/>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F159" s="5"/>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F160" s="5"/>
-    </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F161" s="5"/>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F162" s="5"/>
-    </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F164" s="5"/>
-    </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F165" s="5"/>
-    </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F166" s="5"/>
-    </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F167" s="5"/>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F168" s="5"/>
-    </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F169" s="5"/>
-    </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F170" s="5"/>
-    </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F171" s="5"/>
-    </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F172" s="5"/>
-    </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F173" s="5"/>
-    </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F174" s="5"/>
-    </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F175" s="5"/>
-    </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F176" s="5"/>
-    </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F177" s="5"/>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F178" s="5"/>
-    </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F179" s="5"/>
-    </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F180" s="5"/>
-    </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F181" s="5"/>
-    </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F182" s="5"/>
-    </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F183" s="5"/>
-    </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F184" s="5"/>
-    </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F185" s="5"/>
-    </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F186" s="5"/>
-    </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F187" s="5"/>
-    </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F188" s="5"/>
-    </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F189" s="5"/>
-    </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F190" s="5"/>
-    </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F191" s="5"/>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F192" s="5"/>
-    </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F193" s="5"/>
-    </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F194" s="5"/>
-    </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F195" s="5"/>
-    </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F196" s="5"/>
-    </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F197" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G164" s="5"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G165" s="5"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G167" s="5"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G169" s="5"/>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G170" s="5"/>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G171" s="5"/>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G172" s="5"/>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G173" s="5"/>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G174" s="5"/>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G175" s="5"/>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G176" s="5"/>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G177" s="5"/>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G178" s="5"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="5"/>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G180" s="5"/>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G181" s="5"/>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G182" s="5"/>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G183" s="5"/>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G184" s="5"/>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G185" s="5"/>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G186" s="5"/>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G187" s="5"/>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G188" s="5"/>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G189" s="5"/>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G190" s="5"/>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G191" s="5"/>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G192" s="5"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G193" s="5"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="5"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="5"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="5"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:I9"/>
+  <autoFilter ref="A9:J9"/>
   <mergeCells count="2">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <pageMargins left="0.11811023622047244" right="0.11811023622047244" top="0.11811023622047244" bottom="0.11811023622047244" header="0" footer="0"/>
   <pageSetup scale="26" fitToHeight="0" orientation="landscape" r:id="rId1"/>
